--- a/data/pca/factorExposure/factorExposure_2012-03-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-03-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01345693052224601</v>
+        <v>0.01472123353999607</v>
       </c>
       <c r="C2">
-        <v>-0.03082679704302344</v>
+        <v>0.02651592941662835</v>
       </c>
       <c r="D2">
-        <v>0.001564577055197344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.004515451696060423</v>
+      </c>
+      <c r="E2">
+        <v>0.00930398970626822</v>
+      </c>
+      <c r="F2">
+        <v>-0.01277228236481321</v>
+      </c>
+      <c r="G2">
+        <v>-0.01755012933005788</v>
+      </c>
+      <c r="H2">
+        <v>0.05144505111168023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07290934281475049</v>
+        <v>0.08720894574648919</v>
       </c>
       <c r="C4">
-        <v>-0.05149030041406403</v>
+        <v>0.03767381865476929</v>
       </c>
       <c r="D4">
-        <v>0.08235010493133192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06565542138473782</v>
+      </c>
+      <c r="E4">
+        <v>0.01553033050377539</v>
+      </c>
+      <c r="F4">
+        <v>-0.03039563126291015</v>
+      </c>
+      <c r="G4">
+        <v>-0.003144325194033226</v>
+      </c>
+      <c r="H4">
+        <v>-0.04153741805594022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1071842732428078</v>
+        <v>0.1193154571177376</v>
       </c>
       <c r="C6">
-        <v>-0.05482876169874611</v>
+        <v>0.03460624645713398</v>
       </c>
       <c r="D6">
-        <v>-0.002812914922600373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01132264873498125</v>
+      </c>
+      <c r="E6">
+        <v>-0.002678811114057201</v>
+      </c>
+      <c r="F6">
+        <v>-0.05356198416136276</v>
+      </c>
+      <c r="G6">
+        <v>-0.03490421955767529</v>
+      </c>
+      <c r="H6">
+        <v>0.1098624044547042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04949114615701297</v>
+        <v>0.06399231354288497</v>
       </c>
       <c r="C7">
-        <v>-0.02910028658997798</v>
+        <v>0.02094199260882924</v>
       </c>
       <c r="D7">
-        <v>0.04520969109262426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04514668394372814</v>
+      </c>
+      <c r="E7">
+        <v>0.03629813944795523</v>
+      </c>
+      <c r="F7">
+        <v>-0.0351573452359022</v>
+      </c>
+      <c r="G7">
+        <v>0.03605417770018128</v>
+      </c>
+      <c r="H7">
+        <v>-0.004110814635812998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0378881761307344</v>
+        <v>0.04051242761520599</v>
       </c>
       <c r="C8">
-        <v>-0.0115711722552918</v>
+        <v>0.006871041180996523</v>
       </c>
       <c r="D8">
-        <v>0.05279227308377407</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02129573957295451</v>
+      </c>
+      <c r="E8">
+        <v>0.03610869748155478</v>
+      </c>
+      <c r="F8">
+        <v>-0.04941753684230586</v>
+      </c>
+      <c r="G8">
+        <v>-0.05817944661719807</v>
+      </c>
+      <c r="H8">
+        <v>0.006060978597382164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06686444717420227</v>
+        <v>0.07840991484052151</v>
       </c>
       <c r="C9">
-        <v>-0.0421099700326758</v>
+        <v>0.02816845410101262</v>
       </c>
       <c r="D9">
-        <v>0.07092655472968809</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06358129149071022</v>
+      </c>
+      <c r="E9">
+        <v>0.03991176280859243</v>
+      </c>
+      <c r="F9">
+        <v>-0.02947817264495735</v>
+      </c>
+      <c r="G9">
+        <v>-0.006722486370658107</v>
+      </c>
+      <c r="H9">
+        <v>-0.04583041712048262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02968154273423878</v>
+        <v>0.03478026634636341</v>
       </c>
       <c r="C10">
-        <v>-0.03351168122296748</v>
+        <v>0.04315987745164115</v>
       </c>
       <c r="D10">
-        <v>-0.1805948528360249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1744436090198031</v>
+      </c>
+      <c r="E10">
+        <v>0.0489585718330825</v>
+      </c>
+      <c r="F10">
+        <v>-0.04626346805217407</v>
+      </c>
+      <c r="G10">
+        <v>0.02882117846740772</v>
+      </c>
+      <c r="H10">
+        <v>0.04860139588428708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06935364722126593</v>
+        <v>0.07587287303105704</v>
       </c>
       <c r="C11">
-        <v>-0.04733610440423534</v>
+        <v>0.02798423960031438</v>
       </c>
       <c r="D11">
-        <v>0.05638910853384645</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06274531088093452</v>
+      </c>
+      <c r="E11">
+        <v>-0.0001443594247042289</v>
+      </c>
+      <c r="F11">
+        <v>-0.02730823896049817</v>
+      </c>
+      <c r="G11">
+        <v>0.006643844331925302</v>
+      </c>
+      <c r="H11">
+        <v>-0.08606121038544137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05797357548206331</v>
+        <v>0.06732070536759575</v>
       </c>
       <c r="C12">
-        <v>-0.0524624773923027</v>
+        <v>0.03756144038347183</v>
       </c>
       <c r="D12">
-        <v>0.04229804777319884</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04780185454869351</v>
+      </c>
+      <c r="E12">
+        <v>0.01432127946445408</v>
+      </c>
+      <c r="F12">
+        <v>-0.02078745023140549</v>
+      </c>
+      <c r="G12">
+        <v>-0.001986200206550668</v>
+      </c>
+      <c r="H12">
+        <v>-0.04286860295353499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05988251856370197</v>
+        <v>0.06498664858713049</v>
       </c>
       <c r="C13">
-        <v>-0.03995132525920495</v>
+        <v>0.02522173257422416</v>
       </c>
       <c r="D13">
-        <v>0.0599367507146344</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04291147639366709</v>
+      </c>
+      <c r="E13">
+        <v>0.01694325230800253</v>
+      </c>
+      <c r="F13">
+        <v>-0.003780822686669741</v>
+      </c>
+      <c r="G13">
+        <v>0.01073582045846709</v>
+      </c>
+      <c r="H13">
+        <v>-0.03778966197154795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.033308749337027</v>
+        <v>0.04122794596725695</v>
       </c>
       <c r="C14">
-        <v>-0.03181730378864579</v>
+        <v>0.02763657050944495</v>
       </c>
       <c r="D14">
-        <v>0.0001364460860484956</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.006790353146944335</v>
+      </c>
+      <c r="E14">
+        <v>0.03065784314881071</v>
+      </c>
+      <c r="F14">
+        <v>-0.01276410531621737</v>
+      </c>
+      <c r="G14">
+        <v>-0.004272947418912498</v>
+      </c>
+      <c r="H14">
+        <v>-0.05834509263627113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03992015458177336</v>
+        <v>0.03945572735920741</v>
       </c>
       <c r="C15">
-        <v>-0.01126640163771762</v>
+        <v>0.003195383005058687</v>
       </c>
       <c r="D15">
-        <v>0.0173687508592918</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.00452988992176723</v>
+      </c>
+      <c r="E15">
+        <v>0.04250864398527639</v>
+      </c>
+      <c r="F15">
+        <v>0.00784135249054102</v>
+      </c>
+      <c r="G15">
+        <v>-0.02443139654230145</v>
+      </c>
+      <c r="H15">
+        <v>-0.03669980523048717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0601977334561819</v>
+        <v>0.07021937967365949</v>
       </c>
       <c r="C16">
-        <v>-0.04298743328938866</v>
+        <v>0.02858165426755227</v>
       </c>
       <c r="D16">
-        <v>0.04560921100928492</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06180064224983158</v>
+      </c>
+      <c r="E16">
+        <v>0.007678851974443636</v>
+      </c>
+      <c r="F16">
+        <v>-0.02463068235411826</v>
+      </c>
+      <c r="G16">
+        <v>0.004543499694007086</v>
+      </c>
+      <c r="H16">
+        <v>-0.05234254692913175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06274039627770842</v>
+        <v>0.06350154992029483</v>
       </c>
       <c r="C20">
-        <v>-0.03059030790586523</v>
+        <v>0.01331920680327123</v>
       </c>
       <c r="D20">
-        <v>0.05054702059923454</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03913902293639268</v>
+      </c>
+      <c r="E20">
+        <v>0.03291861663091906</v>
+      </c>
+      <c r="F20">
+        <v>-0.01852653865511478</v>
+      </c>
+      <c r="G20">
+        <v>-0.01060582056064433</v>
+      </c>
+      <c r="H20">
+        <v>-0.04352499451933391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02388247408366128</v>
+        <v>0.02453910702873896</v>
       </c>
       <c r="C21">
-        <v>0.002700254969227292</v>
+        <v>-0.01045203861673196</v>
       </c>
       <c r="D21">
-        <v>0.02309495996761528</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02765988788011551</v>
+      </c>
+      <c r="E21">
+        <v>0.04037413890779363</v>
+      </c>
+      <c r="F21">
+        <v>0.01366160415885438</v>
+      </c>
+      <c r="G21">
+        <v>-0.009044229799762301</v>
+      </c>
+      <c r="H21">
+        <v>0.0470253227002965</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07703481234320213</v>
+        <v>0.07228563615282539</v>
       </c>
       <c r="C22">
-        <v>-0.06074021293477987</v>
+        <v>0.03955729338580193</v>
       </c>
       <c r="D22">
-        <v>0.1019091744147663</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.07027353876471222</v>
+      </c>
+      <c r="E22">
+        <v>0.5626286344119594</v>
+      </c>
+      <c r="F22">
+        <v>0.2411261229186856</v>
+      </c>
+      <c r="G22">
+        <v>0.07436060012055186</v>
+      </c>
+      <c r="H22">
+        <v>0.1566290460549828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07800732016685033</v>
+        <v>0.07292904336604271</v>
       </c>
       <c r="C23">
-        <v>-0.05965086635585072</v>
+        <v>0.03824158313685786</v>
       </c>
       <c r="D23">
-        <v>0.1034990820601777</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0711166049672395</v>
+      </c>
+      <c r="E23">
+        <v>0.562024427527649</v>
+      </c>
+      <c r="F23">
+        <v>0.2397652820399607</v>
+      </c>
+      <c r="G23">
+        <v>0.07298971767812214</v>
+      </c>
+      <c r="H23">
+        <v>0.1516822790668058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0704700750558194</v>
+        <v>0.07942584774854913</v>
       </c>
       <c r="C24">
-        <v>-0.05167396030515857</v>
+        <v>0.03396745527599909</v>
       </c>
       <c r="D24">
-        <v>0.05839096946989417</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06031473873218417</v>
+      </c>
+      <c r="E24">
+        <v>0.0187899037872146</v>
+      </c>
+      <c r="F24">
+        <v>-0.03386837736370809</v>
+      </c>
+      <c r="G24">
+        <v>-0.009475302886964923</v>
+      </c>
+      <c r="H24">
+        <v>-0.05714844646369455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07015767621165295</v>
+        <v>0.07758604624736429</v>
       </c>
       <c r="C25">
-        <v>-0.05660502907405477</v>
+        <v>0.03850694699878753</v>
       </c>
       <c r="D25">
-        <v>0.06630610937182341</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05281488946620541</v>
+      </c>
+      <c r="E25">
+        <v>0.02247939434381666</v>
+      </c>
+      <c r="F25">
+        <v>-0.02326365525727662</v>
+      </c>
+      <c r="G25">
+        <v>-0.01692565100228383</v>
+      </c>
+      <c r="H25">
+        <v>-0.05861873338632818</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04442370726130084</v>
+        <v>0.04701509722697898</v>
       </c>
       <c r="C26">
-        <v>-0.0106647078210476</v>
+        <v>0.002839844782226315</v>
       </c>
       <c r="D26">
-        <v>0.01301705032074389</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01826708827848204</v>
+      </c>
+      <c r="E26">
+        <v>0.05408130794194699</v>
+      </c>
+      <c r="F26">
+        <v>-0.02045854319568867</v>
+      </c>
+      <c r="G26">
+        <v>0.00944259300370614</v>
+      </c>
+      <c r="H26">
+        <v>-0.05232199812045244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05178940139322547</v>
+        <v>0.06149836913960723</v>
       </c>
       <c r="C28">
-        <v>-0.0746121095243116</v>
+        <v>0.08663864099299125</v>
       </c>
       <c r="D28">
-        <v>-0.3125034649710566</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3072810177903763</v>
+      </c>
+      <c r="E28">
+        <v>0.02836497693667094</v>
+      </c>
+      <c r="F28">
+        <v>-0.05315311506539462</v>
+      </c>
+      <c r="G28">
+        <v>-0.03463125454809172</v>
+      </c>
+      <c r="H28">
+        <v>0.04069197197704601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03968611923766118</v>
+        <v>0.04797311842359331</v>
       </c>
       <c r="C29">
-        <v>-0.03104357193536318</v>
+        <v>0.02607794323175872</v>
       </c>
       <c r="D29">
-        <v>0.00336731788580081</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.006797141685678651</v>
+      </c>
+      <c r="E29">
+        <v>0.05400843204950254</v>
+      </c>
+      <c r="F29">
+        <v>0.000215805747413586</v>
+      </c>
+      <c r="G29">
+        <v>0.01208707878038633</v>
+      </c>
+      <c r="H29">
+        <v>-0.07879751744064895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.125459964991116</v>
+        <v>0.1320754515843949</v>
       </c>
       <c r="C30">
-        <v>-0.09460224084441388</v>
+        <v>0.0650240022001565</v>
       </c>
       <c r="D30">
-        <v>0.1146670213728592</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06913899319939848</v>
+      </c>
+      <c r="E30">
+        <v>0.08843122381006875</v>
+      </c>
+      <c r="F30">
+        <v>0.0259966325295076</v>
+      </c>
+      <c r="G30">
+        <v>-0.07717073671545814</v>
+      </c>
+      <c r="H30">
+        <v>0.04190728339556744</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04220380142463165</v>
+        <v>0.0484360850424681</v>
       </c>
       <c r="C31">
-        <v>-0.02294723304817268</v>
+        <v>0.01497721343781782</v>
       </c>
       <c r="D31">
-        <v>0.02739144293486853</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02712740129572481</v>
+      </c>
+      <c r="E31">
+        <v>0.02726290246097029</v>
+      </c>
+      <c r="F31">
+        <v>-0.009345303126752576</v>
+      </c>
+      <c r="G31">
+        <v>0.03040287133776555</v>
+      </c>
+      <c r="H31">
+        <v>-0.06323395216487955</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03746661639557079</v>
+        <v>0.03899537459798491</v>
       </c>
       <c r="C32">
-        <v>-0.0249604305141016</v>
+        <v>0.01822535310313282</v>
       </c>
       <c r="D32">
-        <v>0.02621257846930294</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01310254413220448</v>
+      </c>
+      <c r="E32">
+        <v>0.06605666702610254</v>
+      </c>
+      <c r="F32">
+        <v>0.01938874889505097</v>
+      </c>
+      <c r="G32">
+        <v>-0.02300890276876722</v>
+      </c>
+      <c r="H32">
+        <v>-0.06937106162571044</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08213246316402593</v>
+        <v>0.09522250376744064</v>
       </c>
       <c r="C33">
-        <v>-0.0441105318290748</v>
+        <v>0.02729462226746686</v>
       </c>
       <c r="D33">
-        <v>0.06497476296270731</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04872191372312645</v>
+      </c>
+      <c r="E33">
+        <v>0.01619470463220438</v>
+      </c>
+      <c r="F33">
+        <v>-0.002885042366513803</v>
+      </c>
+      <c r="G33">
+        <v>0.007882511180614201</v>
+      </c>
+      <c r="H33">
+        <v>-0.05734891622098011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05563006232650863</v>
+        <v>0.06193179142669309</v>
       </c>
       <c r="C34">
-        <v>-0.02832361449650535</v>
+        <v>0.01420158714754097</v>
       </c>
       <c r="D34">
-        <v>0.05670554187875258</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05425750675903141</v>
+      </c>
+      <c r="E34">
+        <v>0.01000925847930829</v>
+      </c>
+      <c r="F34">
+        <v>-0.01655147515965401</v>
+      </c>
+      <c r="G34">
+        <v>0.001509368838216823</v>
+      </c>
+      <c r="H34">
+        <v>-0.05738299347472711</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03633932449807198</v>
+        <v>0.03936927099829122</v>
       </c>
       <c r="C35">
-        <v>-0.008783125543581209</v>
+        <v>0.003732494631420656</v>
       </c>
       <c r="D35">
-        <v>0.007401417639825026</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.008291329462326589</v>
+      </c>
+      <c r="E35">
+        <v>0.01830540684459384</v>
+      </c>
+      <c r="F35">
+        <v>0.01663295971995819</v>
+      </c>
+      <c r="G35">
+        <v>0.01336962490129878</v>
+      </c>
+      <c r="H35">
+        <v>-0.01797290285485007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02118247451544647</v>
+        <v>0.02786404570524258</v>
       </c>
       <c r="C36">
-        <v>-0.0174505364440695</v>
+        <v>0.01370081466057262</v>
       </c>
       <c r="D36">
-        <v>0.02134172268419742</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01545441044364473</v>
+      </c>
+      <c r="E36">
+        <v>0.04433765020991172</v>
+      </c>
+      <c r="F36">
+        <v>-0.01187287784124893</v>
+      </c>
+      <c r="G36">
+        <v>0.01096249185726184</v>
+      </c>
+      <c r="H36">
+        <v>-0.04452135692044096</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03819718935038698</v>
+        <v>0.04354917602102805</v>
       </c>
       <c r="C38">
-        <v>-0.003207246710750932</v>
+        <v>-0.0007577414974309839</v>
       </c>
       <c r="D38">
-        <v>0.01891526465698974</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01727586166349891</v>
+      </c>
+      <c r="E38">
+        <v>0.05484725764008525</v>
+      </c>
+      <c r="F38">
+        <v>0.01548206702710937</v>
+      </c>
+      <c r="G38">
+        <v>-0.006389872476587038</v>
+      </c>
+      <c r="H38">
+        <v>-0.03341181729995244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09122779537405971</v>
+        <v>0.1029792593350724</v>
       </c>
       <c r="C39">
-        <v>-0.07423052895885414</v>
+        <v>0.0523063869523037</v>
       </c>
       <c r="D39">
-        <v>0.05719550844035622</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05984648167979745</v>
+      </c>
+      <c r="E39">
+        <v>0.0001064663696395</v>
+      </c>
+      <c r="F39">
+        <v>-0.00217879907000768</v>
+      </c>
+      <c r="G39">
+        <v>-0.02856914670462738</v>
+      </c>
+      <c r="H39">
+        <v>-0.04864159521996776</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07420125540961046</v>
+        <v>0.07136350740253679</v>
       </c>
       <c r="C40">
-        <v>-0.04123824711533235</v>
+        <v>0.02026976316560171</v>
       </c>
       <c r="D40">
-        <v>-0.003654733525882302</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01174642487928822</v>
+      </c>
+      <c r="E40">
+        <v>0.01976091494922568</v>
+      </c>
+      <c r="F40">
+        <v>0.05739110468295523</v>
+      </c>
+      <c r="G40">
+        <v>-0.05431853290858771</v>
+      </c>
+      <c r="H40">
+        <v>0.1008570228166532</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04028927085170696</v>
+        <v>0.04314684175125921</v>
       </c>
       <c r="C41">
-        <v>-0.005602569630104183</v>
+        <v>-0.002023842655358134</v>
       </c>
       <c r="D41">
-        <v>0.0384608839807452</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03519000793881721</v>
+      </c>
+      <c r="E41">
+        <v>0.004803893363972774</v>
+      </c>
+      <c r="F41">
+        <v>0.01538358079061562</v>
+      </c>
+      <c r="G41">
+        <v>-0.009508128714684995</v>
+      </c>
+      <c r="H41">
+        <v>-0.03344450588374086</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04683394695703842</v>
+        <v>0.0575308096915513</v>
       </c>
       <c r="C43">
-        <v>-0.02589875229665434</v>
+        <v>0.01784095216499697</v>
       </c>
       <c r="D43">
-        <v>0.01965031645691101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02625797088420406</v>
+      </c>
+      <c r="E43">
+        <v>0.02064229614034301</v>
+      </c>
+      <c r="F43">
+        <v>-0.01043316344219646</v>
+      </c>
+      <c r="G43">
+        <v>0.01951463371160638</v>
+      </c>
+      <c r="H43">
+        <v>-0.05154092034663584</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09137384331999356</v>
+        <v>0.09504878253881963</v>
       </c>
       <c r="C44">
-        <v>-0.09188017598193626</v>
+        <v>0.06550432887901694</v>
       </c>
       <c r="D44">
-        <v>0.08318367323208842</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05918160339262322</v>
+      </c>
+      <c r="E44">
+        <v>0.0904277805530003</v>
+      </c>
+      <c r="F44">
+        <v>-0.0395679228226473</v>
+      </c>
+      <c r="G44">
+        <v>-0.03027853114452956</v>
+      </c>
+      <c r="H44">
+        <v>-0.01974486081347889</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02388867257490981</v>
+        <v>0.03286979883663577</v>
       </c>
       <c r="C46">
-        <v>-0.01378873068086764</v>
+        <v>0.01151969732929404</v>
       </c>
       <c r="D46">
-        <v>0.02178857781873957</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03297222818483072</v>
+      </c>
+      <c r="E46">
+        <v>0.02927533605696245</v>
+      </c>
+      <c r="F46">
+        <v>-0.01319978282159653</v>
+      </c>
+      <c r="G46">
+        <v>0.005030404122190405</v>
+      </c>
+      <c r="H46">
+        <v>-0.03836692416617323</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02959547039171944</v>
+        <v>0.03793616333502425</v>
       </c>
       <c r="C47">
-        <v>-0.02437578852012327</v>
+        <v>0.02049137974087489</v>
       </c>
       <c r="D47">
-        <v>0.01143288894947689</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.009494895357556852</v>
+      </c>
+      <c r="E47">
+        <v>0.05065143810338971</v>
+      </c>
+      <c r="F47">
+        <v>-0.007869880521104015</v>
+      </c>
+      <c r="G47">
+        <v>0.04219692709872504</v>
+      </c>
+      <c r="H47">
+        <v>-0.02235093345125238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03142147898953333</v>
+        <v>0.037559893104325</v>
       </c>
       <c r="C48">
-        <v>-0.01766988364834296</v>
+        <v>0.01180235724582932</v>
       </c>
       <c r="D48">
-        <v>0.03148606885839037</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01903443682639265</v>
+      </c>
+      <c r="E48">
+        <v>0.04535606951823828</v>
+      </c>
+      <c r="F48">
+        <v>-0.0001065073260161339</v>
+      </c>
+      <c r="G48">
+        <v>-0.01054923459701418</v>
+      </c>
+      <c r="H48">
+        <v>-0.04109977696998569</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1626151387247128</v>
+        <v>0.1899736846559777</v>
       </c>
       <c r="C49">
-        <v>-0.06261799384175591</v>
+        <v>0.0367142993666025</v>
       </c>
       <c r="D49">
-        <v>-0.01710119251923807</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02730107461407883</v>
+      </c>
+      <c r="E49">
+        <v>-0.1497594843679035</v>
+      </c>
+      <c r="F49">
+        <v>-0.08349410605613936</v>
+      </c>
+      <c r="G49">
+        <v>0.04444553090744672</v>
+      </c>
+      <c r="H49">
+        <v>0.2378765585913559</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03866602183583288</v>
+        <v>0.04596336093817615</v>
       </c>
       <c r="C50">
-        <v>-0.02603470251088543</v>
+        <v>0.01897746796706619</v>
       </c>
       <c r="D50">
-        <v>0.03774607669593338</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03065706554035836</v>
+      </c>
+      <c r="E50">
+        <v>0.05115884788604353</v>
+      </c>
+      <c r="F50">
+        <v>-0.009895102543651196</v>
+      </c>
+      <c r="G50">
+        <v>0.02501364612463303</v>
+      </c>
+      <c r="H50">
+        <v>-0.06099512248112809</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02460639402196377</v>
+        <v>0.02923101151710784</v>
       </c>
       <c r="C51">
-        <v>-0.007789803790992144</v>
+        <v>0.003835021899478288</v>
       </c>
       <c r="D51">
-        <v>0.01634937861874102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01307354562468341</v>
+      </c>
+      <c r="E51">
+        <v>0.0140627096742404</v>
+      </c>
+      <c r="F51">
+        <v>-0.01854844086033231</v>
+      </c>
+      <c r="G51">
+        <v>0.001203362340548533</v>
+      </c>
+      <c r="H51">
+        <v>0.002702532803794723</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1514668077402672</v>
+        <v>0.1624566376430509</v>
       </c>
       <c r="C53">
-        <v>-0.07927419734570568</v>
+        <v>0.05279633816651148</v>
       </c>
       <c r="D53">
-        <v>0.02657538178246085</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01942132924457423</v>
+      </c>
+      <c r="E53">
+        <v>-0.02746661962383109</v>
+      </c>
+      <c r="F53">
+        <v>-0.0187337016882871</v>
+      </c>
+      <c r="G53">
+        <v>0.02721274532528188</v>
+      </c>
+      <c r="H53">
+        <v>-0.1762662960509995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05423442647392409</v>
+        <v>0.0573997916575256</v>
       </c>
       <c r="C54">
-        <v>-0.02620095469083327</v>
+        <v>0.01507315430722924</v>
       </c>
       <c r="D54">
-        <v>0.02238570413873725</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01723345026982218</v>
+      </c>
+      <c r="E54">
+        <v>0.05132705782087604</v>
+      </c>
+      <c r="F54">
+        <v>-0.004611991145085093</v>
+      </c>
+      <c r="G54">
+        <v>-0.01069652631430588</v>
+      </c>
+      <c r="H54">
+        <v>-0.04762286177122267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09927265843101432</v>
+        <v>0.1035371727974841</v>
       </c>
       <c r="C55">
-        <v>-0.0543585383903752</v>
+        <v>0.0346424004175095</v>
       </c>
       <c r="D55">
-        <v>0.0269619777069935</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02275779738292669</v>
+      </c>
+      <c r="E55">
+        <v>0.01794727837619014</v>
+      </c>
+      <c r="F55">
+        <v>-0.0141882056283785</v>
+      </c>
+      <c r="G55">
+        <v>0.02127104258273608</v>
+      </c>
+      <c r="H55">
+        <v>-0.1517773262981468</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1475653897588768</v>
+        <v>0.1610279734319896</v>
       </c>
       <c r="C56">
-        <v>-0.09075131858111471</v>
+        <v>0.06406663658353662</v>
       </c>
       <c r="D56">
-        <v>0.02395241070441265</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0189042554969885</v>
+      </c>
+      <c r="E56">
+        <v>-0.02506677001599963</v>
+      </c>
+      <c r="F56">
+        <v>-0.03678179548615933</v>
+      </c>
+      <c r="G56">
+        <v>0.03930768483695195</v>
+      </c>
+      <c r="H56">
+        <v>-0.1770816075371412</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1261901234830438</v>
+        <v>0.09761268063762786</v>
       </c>
       <c r="C58">
-        <v>-0.007060299018049641</v>
+        <v>-0.0363019103569238</v>
       </c>
       <c r="D58">
-        <v>0.03089670367071753</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.0426514859123174</v>
+      </c>
+      <c r="E58">
+        <v>0.170283785203042</v>
+      </c>
+      <c r="F58">
+        <v>0.02015837815318241</v>
+      </c>
+      <c r="G58">
+        <v>0.03158765720495053</v>
+      </c>
+      <c r="H58">
+        <v>0.2391138214641779</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1198449852792439</v>
+        <v>0.1372082859469747</v>
       </c>
       <c r="C59">
-        <v>-0.07987352027501599</v>
+        <v>0.08729720448529654</v>
       </c>
       <c r="D59">
-        <v>-0.352308203469789</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3634817731942626</v>
+      </c>
+      <c r="E59">
+        <v>0.02484007714294597</v>
+      </c>
+      <c r="F59">
+        <v>-0.01965914111939469</v>
+      </c>
+      <c r="G59">
+        <v>0.0238494720819259</v>
+      </c>
+      <c r="H59">
+        <v>0.005040693399364686</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2010078190541457</v>
+        <v>0.232129428581024</v>
       </c>
       <c r="C60">
-        <v>-0.1029577481167733</v>
+        <v>0.06845858818615368</v>
       </c>
       <c r="D60">
-        <v>0.01093966609762257</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04012338428240392</v>
+      </c>
+      <c r="E60">
+        <v>-0.09229177260482981</v>
+      </c>
+      <c r="F60">
+        <v>-0.06956038816445782</v>
+      </c>
+      <c r="G60">
+        <v>-0.03247978588516364</v>
+      </c>
+      <c r="H60">
+        <v>0.154065256024705</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07998182229004501</v>
+        <v>0.08899846229639986</v>
       </c>
       <c r="C61">
-        <v>-0.05356119750890306</v>
+        <v>0.03815695311554405</v>
       </c>
       <c r="D61">
-        <v>0.04272172135413372</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04088546574716113</v>
+      </c>
+      <c r="E61">
+        <v>-0.002584758539001716</v>
+      </c>
+      <c r="F61">
+        <v>-0.001908186477641582</v>
+      </c>
+      <c r="G61">
+        <v>0.005502819973697604</v>
+      </c>
+      <c r="H61">
+        <v>-0.06545738315510581</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1285744272186666</v>
+        <v>0.1397154932948226</v>
       </c>
       <c r="C62">
-        <v>-0.06567019603918405</v>
+        <v>0.04149543711755355</v>
       </c>
       <c r="D62">
-        <v>0.03274924852727903</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03170474868715612</v>
+      </c>
+      <c r="E62">
+        <v>-0.06271811881486063</v>
+      </c>
+      <c r="F62">
+        <v>-0.01799189425701769</v>
+      </c>
+      <c r="G62">
+        <v>-0.004915866255694762</v>
+      </c>
+      <c r="H62">
+        <v>-0.197344543828139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05049237733922923</v>
+        <v>0.05017487393397366</v>
       </c>
       <c r="C63">
-        <v>-0.02475044750518902</v>
+        <v>0.0128720426332342</v>
       </c>
       <c r="D63">
-        <v>0.02232210053001659</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02092273722210559</v>
+      </c>
+      <c r="E63">
+        <v>0.05253894269279847</v>
+      </c>
+      <c r="F63">
+        <v>0.01535540985022529</v>
+      </c>
+      <c r="G63">
+        <v>-0.01996495754431475</v>
+      </c>
+      <c r="H63">
+        <v>-0.05705126460350209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1035022366128272</v>
+        <v>0.1085291542544907</v>
       </c>
       <c r="C64">
-        <v>-0.02349355594111795</v>
+        <v>0.00433958884862284</v>
       </c>
       <c r="D64">
-        <v>0.0615057070589269</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04082308301042736</v>
+      </c>
+      <c r="E64">
+        <v>0.04891659187291739</v>
+      </c>
+      <c r="F64">
+        <v>-0.04191990174143478</v>
+      </c>
+      <c r="G64">
+        <v>-0.04546584119055278</v>
+      </c>
+      <c r="H64">
+        <v>-0.06195011557965771</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1219434632933514</v>
+        <v>0.1262773878022181</v>
       </c>
       <c r="C65">
-        <v>-0.06107110079212733</v>
+        <v>0.03919435851079319</v>
       </c>
       <c r="D65">
-        <v>-0.01518985313265033</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.004618184541541459</v>
+      </c>
+      <c r="E65">
+        <v>0.01626759500679955</v>
+      </c>
+      <c r="F65">
+        <v>-0.0497681419580496</v>
+      </c>
+      <c r="G65">
+        <v>-0.06251673746520357</v>
+      </c>
+      <c r="H65">
+        <v>0.1394440815165796</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1443769234957247</v>
+        <v>0.1548590639579034</v>
       </c>
       <c r="C66">
-        <v>-0.08090097956174687</v>
+        <v>0.0495335867872212</v>
       </c>
       <c r="D66">
-        <v>0.1081015241156213</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09397935793141796</v>
+      </c>
+      <c r="E66">
+        <v>-0.03063729451381691</v>
+      </c>
+      <c r="F66">
+        <v>-0.0164098797861594</v>
+      </c>
+      <c r="G66">
+        <v>-0.03931926725895683</v>
+      </c>
+      <c r="H66">
+        <v>-0.1234195852043393</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07047905906138784</v>
+        <v>0.08301515495462301</v>
       </c>
       <c r="C67">
-        <v>-0.01355763684687642</v>
+        <v>0.005560809480409673</v>
       </c>
       <c r="D67">
-        <v>0.02422333331934542</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03044675257109739</v>
+      </c>
+      <c r="E67">
+        <v>0.02452551672470715</v>
+      </c>
+      <c r="F67">
+        <v>-0.01689133531478131</v>
+      </c>
+      <c r="G67">
+        <v>0.01178410086892154</v>
+      </c>
+      <c r="H67">
+        <v>-0.0357078132633208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05891374633701619</v>
+        <v>0.05743942825526799</v>
       </c>
       <c r="C68">
-        <v>-0.05095161910298997</v>
+        <v>0.05900843514327072</v>
       </c>
       <c r="D68">
-        <v>-0.2517185847656928</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2690710547575295</v>
+      </c>
+      <c r="E68">
+        <v>0.03680199589216756</v>
+      </c>
+      <c r="F68">
+        <v>-0.01338109427705791</v>
+      </c>
+      <c r="G68">
+        <v>0.01557721605068651</v>
+      </c>
+      <c r="H68">
+        <v>-0.003454430138979564</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0514762231155679</v>
+        <v>0.05305033616427909</v>
       </c>
       <c r="C69">
-        <v>-0.01762234571752436</v>
+        <v>0.006150681906036804</v>
       </c>
       <c r="D69">
-        <v>0.01832037170001828</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01487680763690303</v>
+      </c>
+      <c r="E69">
+        <v>0.02417266431289801</v>
+      </c>
+      <c r="F69">
+        <v>0.009288870224249063</v>
+      </c>
+      <c r="G69">
+        <v>0.02240889828002081</v>
+      </c>
+      <c r="H69">
+        <v>-0.04749735275211713</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005127850632182819</v>
+        <v>0.02746353279372192</v>
       </c>
       <c r="C70">
-        <v>0.006022090803309774</v>
+        <v>-0.001202276669695833</v>
       </c>
       <c r="D70">
-        <v>-0.0009390656909196271</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.005441631026287333</v>
+      </c>
+      <c r="E70">
+        <v>-0.02221536934646221</v>
+      </c>
+      <c r="F70">
+        <v>-0.02112394401598126</v>
+      </c>
+      <c r="G70">
+        <v>0.02063765819994404</v>
+      </c>
+      <c r="H70">
+        <v>0.03380189702205298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05897644116307436</v>
+        <v>0.06050430212628836</v>
       </c>
       <c r="C71">
-        <v>-0.05118651064474092</v>
+        <v>0.06316211336956597</v>
       </c>
       <c r="D71">
-        <v>-0.2926402004187389</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2952208323101196</v>
+      </c>
+      <c r="E71">
+        <v>0.03394778360584996</v>
+      </c>
+      <c r="F71">
+        <v>-0.04140064626409911</v>
+      </c>
+      <c r="G71">
+        <v>0.00486827496628368</v>
+      </c>
+      <c r="H71">
+        <v>-0.008863187005346097</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1410771445477596</v>
+        <v>0.1459477981124414</v>
       </c>
       <c r="C72">
-        <v>-0.06710104711762524</v>
+        <v>0.03657481787415216</v>
       </c>
       <c r="D72">
-        <v>-0.007194824122450887</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008283667913302</v>
+      </c>
+      <c r="E72">
+        <v>-0.1128578792343262</v>
+      </c>
+      <c r="F72">
+        <v>0.1561588955717939</v>
+      </c>
+      <c r="G72">
+        <v>-0.1210784277796804</v>
+      </c>
+      <c r="H72">
+        <v>-0.0230264598708191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2735838936811195</v>
+        <v>0.2881680317157865</v>
       </c>
       <c r="C73">
-        <v>-0.1123718965824117</v>
+        <v>0.04760549948433333</v>
       </c>
       <c r="D73">
-        <v>0.04922445925539404</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09896692017122745</v>
+      </c>
+      <c r="E73">
+        <v>-0.2111366869126153</v>
+      </c>
+      <c r="F73">
+        <v>-0.1256172832316522</v>
+      </c>
+      <c r="G73">
+        <v>0.1306986833797421</v>
+      </c>
+      <c r="H73">
+        <v>0.488341552644172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07935575972624825</v>
+        <v>0.09232373946508127</v>
       </c>
       <c r="C74">
-        <v>-0.07742086261875035</v>
+        <v>0.0606321112807879</v>
       </c>
       <c r="D74">
-        <v>0.01444170256459815</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02883429279412536</v>
+      </c>
+      <c r="E74">
+        <v>-0.006489023903224675</v>
+      </c>
+      <c r="F74">
+        <v>-0.0004079961779429635</v>
+      </c>
+      <c r="G74">
+        <v>0.06237360874609731</v>
+      </c>
+      <c r="H74">
+        <v>-0.1158226707862459</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09449994560685998</v>
+        <v>0.1000560043908327</v>
       </c>
       <c r="C75">
-        <v>-0.05443805609115721</v>
+        <v>0.02970714720355848</v>
       </c>
       <c r="D75">
-        <v>0.009780717790107247</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01492235764609027</v>
+      </c>
+      <c r="E75">
+        <v>0.00928944921645806</v>
+      </c>
+      <c r="F75">
+        <v>-0.0248055615927016</v>
+      </c>
+      <c r="G75">
+        <v>0.02868948887923189</v>
+      </c>
+      <c r="H75">
+        <v>-0.1153809582837425</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1299502951694025</v>
+        <v>0.1404688198189324</v>
       </c>
       <c r="C76">
-        <v>-0.08396597033885406</v>
+        <v>0.05772911321023452</v>
       </c>
       <c r="D76">
-        <v>0.0561048428643138</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05084287789296926</v>
+      </c>
+      <c r="E76">
+        <v>0.02793895624717992</v>
+      </c>
+      <c r="F76">
+        <v>-0.04523061993919297</v>
+      </c>
+      <c r="G76">
+        <v>0.02605872479788925</v>
+      </c>
+      <c r="H76">
+        <v>-0.1988668092918575</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1120963934966829</v>
+        <v>0.1077633275950588</v>
       </c>
       <c r="C77">
-        <v>-0.01951010712873548</v>
+        <v>-0.008505098884833794</v>
       </c>
       <c r="D77">
-        <v>0.05327153781408948</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.02047132530846059</v>
+      </c>
+      <c r="E77">
+        <v>0.05007777661644517</v>
+      </c>
+      <c r="F77">
+        <v>-0.1025808384174107</v>
+      </c>
+      <c r="G77">
+        <v>-0.894839488148267</v>
+      </c>
+      <c r="H77">
+        <v>0.06258844434530819</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09933838666866375</v>
+        <v>0.138929896099076</v>
       </c>
       <c r="C78">
-        <v>-0.04070176016484864</v>
+        <v>0.03430919281627078</v>
       </c>
       <c r="D78">
-        <v>0.08337855315207605</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.0842202132507557</v>
+      </c>
+      <c r="E78">
+        <v>0.05923452312581879</v>
+      </c>
+      <c r="F78">
+        <v>-0.03518035955862198</v>
+      </c>
+      <c r="G78">
+        <v>-0.08929985131128468</v>
+      </c>
+      <c r="H78">
+        <v>0.04669830064163301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1461884248059693</v>
+        <v>0.1513266853813224</v>
       </c>
       <c r="C79">
-        <v>-0.07627209601658584</v>
+        <v>0.0440482729873194</v>
       </c>
       <c r="D79">
-        <v>0.03096704728085066</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02766729409917387</v>
+      </c>
+      <c r="E79">
+        <v>-0.01414341272670558</v>
+      </c>
+      <c r="F79">
+        <v>-0.02014931024020717</v>
+      </c>
+      <c r="G79">
+        <v>0.04371718191142198</v>
+      </c>
+      <c r="H79">
+        <v>-0.1736844608572279</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04546046127807871</v>
+        <v>0.04322700584816298</v>
       </c>
       <c r="C80">
-        <v>-0.0153474005826362</v>
+        <v>0.005671199840693749</v>
       </c>
       <c r="D80">
-        <v>0.02786220531089332</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01823217236391344</v>
+      </c>
+      <c r="E80">
+        <v>-0.01227624560464598</v>
+      </c>
+      <c r="F80">
+        <v>0.001308122815947928</v>
+      </c>
+      <c r="G80">
+        <v>0.03163748366268427</v>
+      </c>
+      <c r="H80">
+        <v>-0.03281986692251329</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1144344626371739</v>
+        <v>0.1204611322053811</v>
       </c>
       <c r="C81">
-        <v>-0.06418148049675083</v>
+        <v>0.03865746497599352</v>
       </c>
       <c r="D81">
-        <v>0.03303016870622909</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02308267831348013</v>
+      </c>
+      <c r="E81">
+        <v>0.02354654625403201</v>
+      </c>
+      <c r="F81">
+        <v>-0.01582947592551777</v>
+      </c>
+      <c r="G81">
+        <v>0.06649724795916589</v>
+      </c>
+      <c r="H81">
+        <v>-0.1475173391890675</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1313126927148038</v>
+        <v>0.132064980080517</v>
       </c>
       <c r="C82">
-        <v>-0.08064684814596394</v>
+        <v>0.05203039734284443</v>
       </c>
       <c r="D82">
-        <v>0.01895043271988554</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02671992417492706</v>
+      </c>
+      <c r="E82">
+        <v>-0.01421080549060102</v>
+      </c>
+      <c r="F82">
+        <v>-0.05700804050817947</v>
+      </c>
+      <c r="G82">
+        <v>0.06057629236420926</v>
+      </c>
+      <c r="H82">
+        <v>-0.2114534838098572</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0759368419435479</v>
+        <v>0.08735076077363643</v>
       </c>
       <c r="C83">
-        <v>0.00951625517604256</v>
+        <v>-0.02352302444681666</v>
       </c>
       <c r="D83">
-        <v>0.02556095775375947</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03194729621561788</v>
+      </c>
+      <c r="E83">
+        <v>0.02238883152393304</v>
+      </c>
+      <c r="F83">
+        <v>-0.05441738204495178</v>
+      </c>
+      <c r="G83">
+        <v>0.07507600198133189</v>
+      </c>
+      <c r="H83">
+        <v>0.06138309972890502</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02777247398176603</v>
+        <v>0.03682656819121927</v>
       </c>
       <c r="C84">
-        <v>-0.0276916818918827</v>
+        <v>0.02205057267292977</v>
       </c>
       <c r="D84">
-        <v>0.03163438204772622</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03258546269345537</v>
+      </c>
+      <c r="E84">
+        <v>0.03033789202324459</v>
+      </c>
+      <c r="F84">
+        <v>0.05573722945932223</v>
+      </c>
+      <c r="G84">
+        <v>0.0671284701892618</v>
+      </c>
+      <c r="H84">
+        <v>0.003676446030278423</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1187135930468054</v>
+        <v>0.1209155785990366</v>
       </c>
       <c r="C85">
-        <v>-0.05629370441040605</v>
+        <v>0.02926267884237128</v>
       </c>
       <c r="D85">
-        <v>0.02334257540162225</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02236350676185652</v>
+      </c>
+      <c r="E85">
+        <v>0.02384794343078333</v>
+      </c>
+      <c r="F85">
+        <v>-0.04018443507679583</v>
+      </c>
+      <c r="G85">
+        <v>0.03597325884838148</v>
+      </c>
+      <c r="H85">
+        <v>-0.1517669893315792</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05032892623415208</v>
+        <v>0.05828996000554177</v>
       </c>
       <c r="C86">
-        <v>-0.03104343402372875</v>
+        <v>0.01994194510663207</v>
       </c>
       <c r="D86">
-        <v>0.02237493895403393</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.02480487396494029</v>
+      </c>
+      <c r="E86">
+        <v>0.06581948974885951</v>
+      </c>
+      <c r="F86">
+        <v>-0.02531597866023848</v>
+      </c>
+      <c r="G86">
+        <v>0.02345609279193885</v>
+      </c>
+      <c r="H86">
+        <v>0.01353015229522326</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1181457634001642</v>
+        <v>0.1224954574225811</v>
       </c>
       <c r="C87">
-        <v>-0.07224580081932207</v>
+        <v>0.0386976883526814</v>
       </c>
       <c r="D87">
-        <v>0.07314050437666103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07066061093237358</v>
+      </c>
+      <c r="E87">
+        <v>0.02731257691311831</v>
+      </c>
+      <c r="F87">
+        <v>0.0004452463526120875</v>
+      </c>
+      <c r="G87">
+        <v>-0.130088099720959</v>
+      </c>
+      <c r="H87">
+        <v>0.03856939918040502</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05322700257682956</v>
+        <v>0.06046823961665816</v>
       </c>
       <c r="C88">
-        <v>-0.02925483673646485</v>
+        <v>0.01862558168850829</v>
       </c>
       <c r="D88">
-        <v>0.02008129474129773</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03339366147625705</v>
+      </c>
+      <c r="E88">
+        <v>0.02240637991961533</v>
+      </c>
+      <c r="F88">
+        <v>-0.004670172874174206</v>
+      </c>
+      <c r="G88">
+        <v>-0.003150820372728922</v>
+      </c>
+      <c r="H88">
+        <v>-0.05419745375536406</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08370638517096229</v>
+        <v>0.09366819672948973</v>
       </c>
       <c r="C89">
-        <v>-0.06918686663029197</v>
+        <v>0.0821029844700735</v>
       </c>
       <c r="D89">
-        <v>-0.3245881727866157</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3479391668473112</v>
+      </c>
+      <c r="E89">
+        <v>0.07317147187461404</v>
+      </c>
+      <c r="F89">
+        <v>-0.08013595593052254</v>
+      </c>
+      <c r="G89">
+        <v>0.02562409822221553</v>
+      </c>
+      <c r="H89">
+        <v>-0.01174878968043508</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07462116706682856</v>
+        <v>0.0790675608525668</v>
       </c>
       <c r="C90">
-        <v>-0.06126113488821087</v>
+        <v>0.06952123514725221</v>
       </c>
       <c r="D90">
-        <v>-0.3212618348524428</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.307189162540732</v>
+      </c>
+      <c r="E90">
+        <v>0.06145863855319891</v>
+      </c>
+      <c r="F90">
+        <v>0.003179258241639434</v>
+      </c>
+      <c r="G90">
+        <v>0.005246200112958243</v>
+      </c>
+      <c r="H90">
+        <v>-0.004694707853254388</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08581336181749961</v>
+        <v>0.0897637946376032</v>
       </c>
       <c r="C91">
-        <v>-0.05622459209879585</v>
+        <v>0.03445486972865373</v>
       </c>
       <c r="D91">
-        <v>0.03427908584384687</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03154628734484161</v>
+      </c>
+      <c r="E91">
+        <v>0.01370165973787586</v>
+      </c>
+      <c r="F91">
+        <v>-0.00598325493106064</v>
+      </c>
+      <c r="G91">
+        <v>0.05491929820812473</v>
+      </c>
+      <c r="H91">
+        <v>-0.0760886134662853</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07525655440394326</v>
+        <v>0.07883930536933068</v>
       </c>
       <c r="C92">
-        <v>-0.07249979269453223</v>
+        <v>0.08287865415026013</v>
       </c>
       <c r="D92">
-        <v>-0.3403756240977281</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3446721915991532</v>
+      </c>
+      <c r="E92">
+        <v>0.04590792209003963</v>
+      </c>
+      <c r="F92">
+        <v>-0.03784743633538783</v>
+      </c>
+      <c r="G92">
+        <v>-0.009802054361751576</v>
+      </c>
+      <c r="H92">
+        <v>-0.01577846208385254</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06525917487885723</v>
+        <v>0.07587049693970875</v>
       </c>
       <c r="C93">
-        <v>-0.06569256418485116</v>
+        <v>0.08040021867114897</v>
       </c>
       <c r="D93">
-        <v>-0.3126786327980031</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.3045779586516865</v>
+      </c>
+      <c r="E93">
+        <v>0.03981003413917281</v>
+      </c>
+      <c r="F93">
+        <v>-0.03687533710892765</v>
+      </c>
+      <c r="G93">
+        <v>-0.0158795788393031</v>
+      </c>
+      <c r="H93">
+        <v>0.01083406217468157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1320803961641424</v>
+        <v>0.1267385610983675</v>
       </c>
       <c r="C94">
-        <v>-0.05643935138087001</v>
+        <v>0.02182833127826388</v>
       </c>
       <c r="D94">
-        <v>0.04772631083801147</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04857982793751527</v>
+      </c>
+      <c r="E94">
+        <v>-0.00515229486045356</v>
+      </c>
+      <c r="F94">
+        <v>-0.02178641970760933</v>
+      </c>
+      <c r="G94">
+        <v>0.06355027589702716</v>
+      </c>
+      <c r="H94">
+        <v>-0.09515824169196807</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1198576797345803</v>
+        <v>0.1267881615841661</v>
       </c>
       <c r="C95">
-        <v>-0.03185926139000384</v>
+        <v>0.003714332044723015</v>
       </c>
       <c r="D95">
-        <v>0.0605803176704687</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07101852301983681</v>
+      </c>
+      <c r="E95">
+        <v>0.01527204824835893</v>
+      </c>
+      <c r="F95">
+        <v>-0.04089157680444352</v>
+      </c>
+      <c r="G95">
+        <v>-0.02727818634457975</v>
+      </c>
+      <c r="H95">
+        <v>0.05930815840101301</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2203545822927353</v>
+        <v>0.2090132233901611</v>
       </c>
       <c r="C97">
-        <v>-0.05458638164442069</v>
+        <v>0.002436121306141636</v>
       </c>
       <c r="D97">
-        <v>-0.1142670700187324</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.08819153036273658</v>
+      </c>
+      <c r="E97">
+        <v>-0.3272144195462199</v>
+      </c>
+      <c r="F97">
+        <v>0.8638338684375499</v>
+      </c>
+      <c r="G97">
+        <v>-0.0714237064340852</v>
+      </c>
+      <c r="H97">
+        <v>-0.01374080772525041</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2436980560795815</v>
+        <v>0.2751883188645811</v>
       </c>
       <c r="C98">
-        <v>-0.07455287821839163</v>
+        <v>0.0339779048537971</v>
       </c>
       <c r="D98">
-        <v>0.04782342213673457</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0586590664569997</v>
+      </c>
+      <c r="E98">
+        <v>-0.1763515127691839</v>
+      </c>
+      <c r="F98">
+        <v>-0.09716042085709799</v>
+      </c>
+      <c r="G98">
+        <v>0.2156004283186802</v>
+      </c>
+      <c r="H98">
+        <v>0.2497890960570357</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4529613377714038</v>
+        <v>0.2873162393621469</v>
       </c>
       <c r="C99">
-        <v>0.8754597725859956</v>
+        <v>-0.9330242937331759</v>
       </c>
       <c r="D99">
-        <v>-0.05161853591355306</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1347518388261027</v>
+      </c>
+      <c r="E99">
+        <v>0.06798001585459684</v>
+      </c>
+      <c r="F99">
+        <v>-0.04552394087314838</v>
+      </c>
+      <c r="G99">
+        <v>0.02511377909516279</v>
+      </c>
+      <c r="H99">
+        <v>-0.06488789226453272</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03947737241812743</v>
+        <v>0.04788996683402463</v>
       </c>
       <c r="C101">
-        <v>-0.03104033079645804</v>
+        <v>0.02625878299187523</v>
       </c>
       <c r="D101">
-        <v>0.004125249606873962</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.007026604862452981</v>
+      </c>
+      <c r="E101">
+        <v>0.05332009107492716</v>
+      </c>
+      <c r="F101">
+        <v>0.0003825875212082601</v>
+      </c>
+      <c r="G101">
+        <v>0.01246905550461965</v>
+      </c>
+      <c r="H101">
+        <v>-0.07775253266771601</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
